--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -29,15 +29,30 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDFF6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006D95EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,48 +61,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -453,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,382 +467,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CountToPlace</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>TestCase</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="D2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>12</v>
+      <c r="E2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>StepID</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
+      <c r="B3" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -52,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -61,24 +61,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -86,13 +119,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -458,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,66 +502,99 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CountToPlace</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>3</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Transitions</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sequencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,11 @@
         <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDCDCD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -117,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -126,6 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -491,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +523,11 @@
         </is>
       </c>
       <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>_ValuesOccurCount</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -544,6 +555,7 @@
           <t>Single</t>
         </is>
       </c>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -570,6 +582,9 @@
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -588,6 +603,31 @@
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>_ValuesOccurCount</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -51,11 +51,6 @@
         <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDCDCD"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -122,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -131,7 +126,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -497,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,11 +517,6 @@
         </is>
       </c>
       <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>_ValuesOccurCount</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -555,7 +544,6 @@
           <t>Single</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -582,9 +570,6 @@
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -603,31 +588,6 @@
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>_ValuesOccurCount</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -52,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,6 +108,39 @@
       <top style="thin">
         <color rgb="00000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
@@ -491,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,46 +533,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Transitions</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Multiple</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
       </c>
-      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Transitions</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>States</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Multiple</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Multiple</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
@@ -551,6 +584,11 @@
           <t>Sequencer</t>
         </is>
       </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -558,42 +596,94 @@
           <t>Multiple</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1</v>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Multiple</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
+++ b/code/cov_tool/output/EXAMPLE/EX_TEST_param_trace.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParamsTraceability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ParamsTraceability" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -681,8 +681,8 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
